--- a/src/MsHuyenLC.Infrastructure/Templates/Excel/QuestionsTemplate.xlsx
+++ b/src/MsHuyenLC.Infrastructure/Templates/Excel/QuestionsTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\MsHuyenLC\src\MsHuyenLC.Infrastructure\Templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5A8970-8658-4AC5-9666-015F6762E532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7470FC7-BAC4-4571-8ECD-A1A2BEB9EF87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,24 +17,21 @@
     <sheet name="DanhMuc" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="CapDoList">DanhMuc!$A$12:$A$17</definedName>
-    <definedName name="DoKhoList">DanhMuc!$A$7:$A$9</definedName>
-    <definedName name="KyNangList">DanhMuc!$A$20:$A$22</definedName>
-    <definedName name="LoaiCauHoiList">DanhMuc!$A$2:$A$3</definedName>
+    <definedName name="CapDoList">DanhMuc!$A$9:$A$14</definedName>
+    <definedName name="DoKhoList">DanhMuc!$A$4:$A$6</definedName>
+    <definedName name="KyNangList">DanhMuc!$A$17:$A$21</definedName>
+    <definedName name="LoaiCauHoiList">DanhMuc!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Nội dung</t>
   </si>
   <si>
-    <t>Loại câu hỏi</t>
-  </si>
-  <si>
     <t>Kỹ năng</t>
   </si>
   <si>
@@ -74,12 +71,6 @@
     <t>Giá trị</t>
   </si>
   <si>
-    <t>TracNghiem</t>
-  </si>
-  <si>
-    <t>TuLuan</t>
-  </si>
-  <si>
     <t>Dễ</t>
   </si>
   <si>
@@ -114,6 +105,12 @@
   </si>
   <si>
     <t>Viết</t>
+  </si>
+  <si>
+    <t>Từ vựng</t>
+  </si>
+  <si>
+    <t>Ngữ pháp</t>
   </si>
 </sst>
 </file>
@@ -453,15 +450,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,22 +498,16 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B500" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>LoaiCauHoiList</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D500" xr:uid="{00000000-0002-0000-0000-000001000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C500" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>DoKhoList</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E2:E500" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D2:D500" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>CapDoList</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="C2:C500" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B2:B500" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>KyNangList</formula1>
     </dataValidation>
   </dataValidations>
@@ -526,74 +517,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A3:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -601,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,7 +602,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -617,39 +610,39 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
         <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -657,23 +650,15 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
